--- a/analysis/quantitative/validation.xlsx
+++ b/analysis/quantitative/validation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,81 @@
         <v>6.214</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Copilot New Prompt: Previous vs. JSON</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>79.16800000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>77.85499999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>78.467</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.108000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7.475999999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Copilot New Prompt: Previous vs. Reference</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>71.17400000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.622</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.634</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.093</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.203</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Copilot New Prompt: JSON vs. Reference</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>69.134</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73.01600000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.884</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.888999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.574</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analysis/quantitative/validation.xlsx
+++ b/analysis/quantitative/validation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,27 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Cos_Mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Precision_Std</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Recall_Std</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>F1_Std</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cos_Std</t>
         </is>
       </c>
     </row>
@@ -486,13 +496,19 @@
         <v>78.821</v>
       </c>
       <c r="E2" t="n">
+        <v>0.8869003057479858</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.304</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>6.540999999999999</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4.973000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.03661717101931572</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +527,19 @@
         <v>71.453</v>
       </c>
       <c r="E3" t="n">
+        <v>0.8365459442138672</v>
+      </c>
+      <c r="F3" t="n">
         <v>7.863</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9.664</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.227</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0606408454477787</v>
       </c>
     </row>
     <row r="4">
@@ -536,13 +558,19 @@
         <v>70.23</v>
       </c>
       <c r="E4" t="n">
+        <v>0.8185633420944214</v>
+      </c>
+      <c r="F4" t="n">
         <v>6.356000000000001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>7.35</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.214</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04836200177669525</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +589,19 @@
         <v>78.467</v>
       </c>
       <c r="E5" t="n">
+        <v>0.8895213007926941</v>
+      </c>
+      <c r="F5" t="n">
         <v>7.108000000000001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.475999999999999</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.086</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.04499721527099609</v>
       </c>
     </row>
     <row r="6">
@@ -586,13 +620,19 @@
         <v>72.622</v>
       </c>
       <c r="E6" t="n">
+        <v>0.8393056988716125</v>
+      </c>
+      <c r="F6" t="n">
         <v>5.634</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>8.093</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>6.203</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05234896391630173</v>
       </c>
     </row>
     <row r="7">
@@ -611,13 +651,19 @@
         <v>70.884</v>
       </c>
       <c r="E7" t="n">
+        <v>0.8229235410690308</v>
+      </c>
+      <c r="F7" t="n">
         <v>5.888999999999999</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>8.574</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.516</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05568757653236389</v>
       </c>
     </row>
   </sheetData>
